--- a/笔记仓库/香港学校/全港小學排名.xlsx
+++ b/笔记仓库/香港学校/全港小學排名.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="602">
   <si>
     <t>排名</t>
   </si>
@@ -185,6 +185,9 @@
     <t>油蔴地天主教小學</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>油蔴地天主教小學（海泓道）</t>
   </si>
   <si>
@@ -356,7 +359,7 @@
     <t>2025-12-03 16:00</t>
   </si>
   <si>
-    <t>網上申請（只接受網上報名；報名表於期間開放）</t>
+    <t>網上申請</t>
   </si>
   <si>
     <t>香港九龍塘基督教中華宣道會陳元喜小學</t>
@@ -426,9 +429,6 @@
   </si>
   <si>
     <t>https://www.mfsp.edu.hk/attachment/upload/files/%E6%8B%9B%E6%94%B625-26%E6%8F%92%E7%8F%AD%E7%94%9F%E8%A9%B3%E6%83%85.pdf</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>順德聯誼總會伍冕端小學</t>
@@ -1851,19 +1851,23 @@
   <si>
     <t>黃大仙官立小學</t>
   </si>
+  <si>
+    <t>2A-1C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-C04]dddd\ yyyy\ mm\ dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-C04]dddd\ yyyy\-mm\-dd\ h:mm"/>
+    <numFmt numFmtId="179" formatCode="[$-C04]dddd\ yyyy\ mm\ dd;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1906,6 +1910,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1914,17 +1925,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1938,6 +1950,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1960,15 +1979,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2442,16 +2454,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2460,119 +2469,122 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2603,18 +2615,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2622,36 +2639,37 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3001,11 +3019,11 @@
   <dimension ref="A1:M540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3017,7 +3035,7 @@
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
@@ -3046,7 +3064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" hidden="1" spans="1:8">
+    <row r="2" ht="15" hidden="1" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3214,7 +3232,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" ht="15" hidden="1" spans="1:8">
+    <row r="16" ht="15" spans="1:8">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3450,7 +3468,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" ht="15" hidden="1" spans="1:8">
+    <row r="35" ht="27.75" hidden="1" spans="1:8">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3505,8 +3523,9 @@
       <c r="F38" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" ht="14.25" hidden="1" spans="1:8">
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" ht="15" hidden="1" spans="1:8">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -3518,7 +3537,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" ht="15" hidden="1" spans="1:8">
+    <row r="40" ht="15" spans="1:8">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3531,53 +3550,56 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="H40" s="12"/>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" ht="15" hidden="1" spans="1:8">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="H41" s="12"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" ht="15" hidden="1" spans="1:8">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="H42" s="12"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" ht="15" hidden="1" spans="1:8">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" ht="15" hidden="1" spans="1:8">
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" ht="15" spans="1:8">
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>54</v>
+      <c r="B44" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>23</v>
@@ -3585,474 +3607,483 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="12"/>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" ht="15" spans="1:8">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="14">
+        <v>58</v>
+      </c>
+      <c r="E45" s="18">
         <v>45981</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" ht="15" hidden="1" spans="1:8">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="H46" s="12"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" ht="15" spans="1:8">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" ht="15" spans="1:8">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="15" t="s">
         <v>65</v>
       </c>
+      <c r="C48" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="D48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="16">
+        <v>58</v>
+      </c>
+      <c r="E48" s="18">
         <v>45969</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G48" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" ht="15" hidden="1" spans="1:8">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="H49" s="12"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" ht="15" spans="1:8">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="18">
+      <c r="C50" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="21">
         <v>45658</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="12"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" ht="15" hidden="1" spans="1:8">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="H51" s="12"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" ht="15" spans="1:8">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="18">
+      <c r="C52" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="21">
         <v>45840</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" ht="14.25" hidden="1" spans="1:8">
+      <c r="E52" s="20"/>
+      <c r="F52" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" ht="15" hidden="1" spans="1:8">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" ht="15" hidden="1" spans="1:8">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" ht="15" hidden="1" spans="1:8">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="H55" s="12"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" ht="15" hidden="1" spans="1:8">
       <c r="A56" s="7">
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="H56" s="12"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" ht="15" hidden="1" spans="1:8">
       <c r="A57" s="7">
         <v>54</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="H57" s="12"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" ht="15" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="17" t="s">
+      <c r="C58" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H58" s="12"/>
+      <c r="D58" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="15"/>
     </row>
     <row r="59" ht="15" hidden="1" spans="1:8">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="H59" s="12"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" ht="15.75" spans="1:8">
       <c r="A60" s="7">
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="C60" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="E60" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H60" s="12"/>
+      <c r="F60" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" ht="15.75" spans="1:8">
       <c r="A61" s="7">
         <v>58</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21" t="s">
+      <c r="C61" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H61" s="12"/>
+      <c r="D61" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" ht="15" hidden="1" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="H62" s="12"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" ht="15" hidden="1" spans="1:8">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:8">
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" ht="15" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="15" t="s">
+      <c r="B64" s="17" t="s">
         <v>94</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="D64" s="14">
         <v>45967</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="18">
         <v>45975</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" ht="14.25" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" ht="15" hidden="1" spans="1:8">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="H65" s="12"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" ht="15" hidden="1" spans="1:8">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="H66" s="12"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" ht="15" hidden="1" spans="1:8">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="H67" s="12"/>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" ht="15" hidden="1" spans="1:8">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="H68" s="12"/>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" ht="15" hidden="1" spans="1:8">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" ht="14.25" spans="1:8">
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" ht="15" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D70" s="14">
         <v>45964</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="26">
         <v>45992</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H70" s="15"/>
     </row>
     <row r="71" ht="15" hidden="1" spans="1:8">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="H71" s="12"/>
+      <c r="H71" s="16"/>
     </row>
     <row r="72" ht="15" hidden="1" spans="1:8">
       <c r="A72" s="7">
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="H72" s="12"/>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" ht="15" spans="1:8">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="C73" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="E73" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" ht="15" hidden="1" spans="1:8">
+      <c r="F73" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" ht="27.75" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>23</v>
@@ -4067,139 +4098,139 @@
         <v>45972</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:8">
+    <row r="75" ht="15" spans="1:8">
       <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="C75" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F75" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="12"/>
+      <c r="E75" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" s="15"/>
     </row>
     <row r="76" ht="15" spans="1:8">
       <c r="A76" s="7">
         <v>73</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H76" s="12"/>
+      <c r="F76" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" s="15"/>
     </row>
     <row r="77" ht="15" spans="1:8">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="C77" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="E77" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H77" s="12"/>
+      <c r="F77" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H77" s="15"/>
     </row>
     <row r="78" ht="15" hidden="1" spans="1:8">
       <c r="A78" s="7">
         <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" ht="15" hidden="1" spans="1:8">
       <c r="A79" s="7">
         <v>76</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="H79" s="12"/>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" ht="15.75" spans="1:8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D80" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21" t="s">
+      <c r="C80" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" ht="14.25" spans="1:8">
+      <c r="D80" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" ht="15" spans="1:8">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H81" s="12"/>
-    </row>
-    <row r="82" ht="15" hidden="1" spans="1:8">
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" ht="15" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>129</v>
+      <c r="B82" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>23</v>
@@ -4214,25 +4245,25 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:8">
+    <row r="83" ht="15" spans="1:8">
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="26" t="s">
+      <c r="B83" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="28">
+      <c r="C83" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="32">
         <v>45967</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" t="s">
-        <v>132</v>
-      </c>
-      <c r="H83" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="H83" s="15"/>
     </row>
     <row r="84" ht="15" hidden="1" spans="1:8">
       <c r="A84" s="7">
@@ -4245,9 +4276,9 @@
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="H84" s="12"/>
-    </row>
-    <row r="85" ht="14.25" spans="1:8">
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" ht="15" spans="1:8">
       <c r="A85" s="7">
         <v>82</v>
       </c>
@@ -4260,7 +4291,7 @@
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-      <c r="H85" s="12"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" ht="15" hidden="1" spans="1:8">
       <c r="A86" s="7">
@@ -4273,7 +4304,7 @@
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="H86" s="12"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" ht="15.75" spans="1:8">
       <c r="A87" s="7">
@@ -4282,19 +4313,19 @@
       <c r="B87" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21" t="s">
+      <c r="D87" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H87" s="12"/>
-    </row>
-    <row r="88" ht="14.25" hidden="1" spans="1:8">
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" ht="15" hidden="1" spans="1:8">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -4305,7 +4336,7 @@
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="H88" s="12"/>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" ht="15" hidden="1" spans="1:8">
       <c r="A89" s="7">
@@ -4318,7 +4349,7 @@
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="H89" s="12"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" ht="15" hidden="1" spans="1:8">
       <c r="A90" s="7">
@@ -4331,7 +4362,7 @@
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="H90" s="12"/>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" ht="15" hidden="1" spans="1:8">
       <c r="A91" s="7">
@@ -4344,7 +4375,7 @@
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="16"/>
     </row>
     <row r="92" ht="15" hidden="1" spans="1:8">
       <c r="A92" s="7">
@@ -4357,13 +4388,13 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="H92" s="12"/>
+      <c r="H92" s="16"/>
     </row>
     <row r="93" ht="15" hidden="1" spans="1:8">
       <c r="A93" s="7">
         <v>400</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C93" s="10"/>
@@ -4382,7 +4413,7 @@
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="H94" s="12"/>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" ht="15" hidden="1" spans="1:8">
       <c r="A95" s="7">
@@ -4395,7 +4426,7 @@
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="H95" s="12"/>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" ht="15" hidden="1" spans="1:8">
       <c r="A96" s="7">
@@ -4468,7 +4499,7 @@
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="H101" s="12"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" ht="15" hidden="1" spans="1:8">
       <c r="A102" s="7">
@@ -4507,9 +4538,9 @@
       <c r="D104" s="11"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="H104" s="12"/>
-    </row>
-    <row r="105" ht="15" hidden="1" spans="1:8">
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" ht="27.75" hidden="1" spans="1:8">
       <c r="A105" s="7">
         <v>93</v>
       </c>
@@ -4522,7 +4553,7 @@
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="H105" s="12"/>
+      <c r="H105" s="16"/>
     </row>
     <row r="106" ht="15" hidden="1" spans="1:8">
       <c r="A106" s="7">
@@ -4571,7 +4602,7 @@
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="H109" s="12"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" ht="15" hidden="1" spans="1:8">
       <c r="A110" s="7">
@@ -4596,7 +4627,7 @@
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="H111" s="12"/>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" ht="15" hidden="1" spans="1:8">
       <c r="A112" s="7">
@@ -4609,7 +4640,7 @@
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="H112" s="12"/>
+      <c r="H112" s="16"/>
     </row>
     <row r="113" ht="15" hidden="1" spans="1:8">
       <c r="A113" s="7">
@@ -4623,7 +4654,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" ht="15" hidden="1" spans="1:8">
+    <row r="114" ht="27.75" hidden="1" spans="1:8">
       <c r="A114" s="7">
         <v>259</v>
       </c>
@@ -4671,7 +4702,7 @@
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" ht="15" hidden="1" spans="1:8">
+    <row r="118" ht="27.75" hidden="1" spans="1:8">
       <c r="A118" s="7">
         <v>170</v>
       </c>
@@ -4682,7 +4713,7 @@
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="H118" s="12"/>
+      <c r="H118" s="16"/>
     </row>
     <row r="119" ht="15" hidden="1" spans="1:8">
       <c r="A119" s="7">
@@ -4719,7 +4750,7 @@
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="H121" s="12"/>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" ht="15" hidden="1" spans="1:8">
       <c r="A122" s="7">
@@ -4768,13 +4799,13 @@
         <v>179</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H125" s="12"/>
+      <c r="H125" s="15"/>
     </row>
     <row r="126" ht="15" hidden="1" spans="1:8">
       <c r="A126" s="7">
@@ -4789,7 +4820,7 @@
       <c r="D126" s="11"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="H126" s="12"/>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" ht="15" hidden="1" spans="1:8">
       <c r="A127" s="7">
@@ -4814,7 +4845,7 @@
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="H128" s="12"/>
+      <c r="H128" s="16"/>
     </row>
     <row r="129" ht="15" hidden="1" spans="1:8">
       <c r="A129" s="7">
@@ -4827,7 +4858,7 @@
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="H129" s="12"/>
+      <c r="H129" s="16"/>
     </row>
     <row r="130" ht="15" hidden="1" spans="1:8">
       <c r="A130" s="7">
@@ -4840,7 +4871,7 @@
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
-      <c r="H130" s="12"/>
+      <c r="H130" s="16"/>
     </row>
     <row r="131" ht="15" hidden="1" spans="1:8">
       <c r="A131" s="7">
@@ -4861,19 +4892,19 @@
       <c r="B132" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D132" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21" t="s">
+      <c r="D132" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="H132" s="12"/>
-    </row>
-    <row r="133" ht="14.25" hidden="1" spans="1:8">
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" ht="15" spans="1:8">
       <c r="A133" s="7">
         <v>108</v>
       </c>
@@ -4889,7 +4920,9 @@
       <c r="G133" t="s">
         <v>24</v>
       </c>
-      <c r="H133" s="12"/>
+      <c r="H133" s="12">
+        <v>45983.375</v>
+      </c>
     </row>
     <row r="134" ht="15" hidden="1" spans="1:8">
       <c r="A134" s="7">
@@ -4902,7 +4935,7 @@
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-      <c r="H134" s="12"/>
+      <c r="H134" s="16"/>
     </row>
     <row r="135" ht="15" hidden="1" spans="1:8">
       <c r="A135" s="7">
@@ -4971,19 +5004,19 @@
       <c r="B140" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C140" s="29" t="s">
+      <c r="C140" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D140" s="30" t="s">
+      <c r="D140" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30" t="s">
+      <c r="E140" s="25"/>
+      <c r="F140" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H140" s="12"/>
-    </row>
-    <row r="141" ht="14.25" hidden="1" spans="1:8">
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" ht="15" hidden="1" spans="1:8">
       <c r="A141" s="7">
         <v>381</v>
       </c>
@@ -5127,7 +5160,7 @@
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
     </row>
-    <row r="153" ht="15" hidden="1" spans="1:8">
+    <row r="153" ht="27.75" hidden="1" spans="1:8">
       <c r="A153" s="7">
         <v>400</v>
       </c>
@@ -5150,7 +5183,7 @@
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
-      <c r="H154" s="12"/>
+      <c r="H154" s="16"/>
     </row>
     <row r="155" ht="15" hidden="1" spans="1:8">
       <c r="A155" s="7">
@@ -5199,7 +5232,7 @@
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
-      <c r="H158" s="12"/>
+      <c r="H158" s="16"/>
     </row>
     <row r="159" ht="15" hidden="1" spans="1:8">
       <c r="A159" s="7">
@@ -5224,7 +5257,7 @@
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
-      <c r="H160" s="12"/>
+      <c r="H160" s="16"/>
     </row>
     <row r="161" ht="15" hidden="1" spans="1:8">
       <c r="A161" s="7">
@@ -5237,7 +5270,7 @@
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
-      <c r="H161" s="12"/>
+      <c r="H161" s="16"/>
     </row>
     <row r="162" ht="15" spans="1:8">
       <c r="A162" s="7">
@@ -5254,9 +5287,9 @@
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H162" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="H162" s="15"/>
     </row>
     <row r="163" ht="15" spans="1:8">
       <c r="A163" s="7">
@@ -5268,14 +5301,14 @@
       <c r="C163" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D163" s="31" t="s">
-        <v>62</v>
+      <c r="D163" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H163" s="12"/>
+      <c r="H163" s="15"/>
     </row>
     <row r="164" ht="15" hidden="1" spans="1:8">
       <c r="A164" s="7">
@@ -5288,7 +5321,7 @@
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
-      <c r="H164" s="12"/>
+      <c r="H164" s="16"/>
     </row>
     <row r="165" ht="15" hidden="1" spans="1:8">
       <c r="A165" s="7">
@@ -5301,7 +5334,7 @@
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="9"/>
-      <c r="H165" s="12"/>
+      <c r="H165" s="16"/>
     </row>
     <row r="166" ht="15" spans="1:8">
       <c r="A166" s="7">
@@ -5314,15 +5347,15 @@
         <v>230</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H166" s="12"/>
-    </row>
-    <row r="167" ht="14.25" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="H166" s="15"/>
+    </row>
+    <row r="167" ht="15" hidden="1" spans="1:8">
       <c r="A167" s="7">
         <v>101</v>
       </c>
@@ -5333,7 +5366,7 @@
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
-      <c r="H167" s="12"/>
+      <c r="H167" s="16"/>
     </row>
     <row r="168" ht="15" hidden="1" spans="1:8">
       <c r="A168" s="7">
@@ -5346,9 +5379,9 @@
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
-      <c r="H168" s="12"/>
-    </row>
-    <row r="169" ht="15" hidden="1" spans="1:8">
+      <c r="H168" s="16"/>
+    </row>
+    <row r="169" ht="15" spans="1:8">
       <c r="A169" s="7">
         <v>137</v>
       </c>
@@ -5364,9 +5397,11 @@
       <c r="G169" t="s">
         <v>24</v>
       </c>
-      <c r="H169" s="12"/>
-    </row>
-    <row r="170" ht="15" hidden="1" spans="1:8">
+      <c r="H169" s="34">
+        <v>45989.4166666667</v>
+      </c>
+    </row>
+    <row r="170" ht="27.75" hidden="1" spans="1:8">
       <c r="A170" s="7">
         <v>101</v>
       </c>
@@ -5377,7 +5412,7 @@
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
-      <c r="H170" s="12"/>
+      <c r="H170" s="16"/>
     </row>
     <row r="171" ht="15" hidden="1" spans="1:8">
       <c r="A171" s="7">
@@ -5414,7 +5449,7 @@
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
-      <c r="H173" s="12"/>
+      <c r="H173" s="16"/>
     </row>
     <row r="174" ht="15" hidden="1" spans="1:8">
       <c r="A174" s="7">
@@ -5427,7 +5462,7 @@
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
-      <c r="H174" s="12"/>
+      <c r="H174" s="16"/>
     </row>
     <row r="175" ht="15" hidden="1" spans="1:8">
       <c r="A175" s="7">
@@ -5440,7 +5475,7 @@
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
-      <c r="H175" s="12"/>
+      <c r="H175" s="16"/>
     </row>
     <row r="176" ht="15" hidden="1" spans="1:8">
       <c r="A176" s="7">
@@ -5453,7 +5488,7 @@
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
-      <c r="H176" s="12"/>
+      <c r="H176" s="16"/>
     </row>
     <row r="177" ht="15" hidden="1" spans="1:8">
       <c r="A177" s="7">
@@ -5478,7 +5513,7 @@
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
-      <c r="H178" s="12"/>
+      <c r="H178" s="16"/>
     </row>
     <row r="179" ht="15" hidden="1" spans="1:8">
       <c r="A179" s="7">
@@ -5527,7 +5562,7 @@
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
-      <c r="H182" s="12"/>
+      <c r="H182" s="16"/>
     </row>
     <row r="183" ht="15" hidden="1" spans="1:8">
       <c r="A183" s="7">
@@ -5576,7 +5611,7 @@
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
-      <c r="H186" s="12"/>
+      <c r="H186" s="16"/>
     </row>
     <row r="187" ht="15" hidden="1" spans="1:8">
       <c r="A187" s="7">
@@ -5613,7 +5648,7 @@
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
-      <c r="H189" s="12"/>
+      <c r="H189" s="16"/>
     </row>
     <row r="190" ht="15" hidden="1" spans="1:8">
       <c r="A190" s="7">
@@ -5638,7 +5673,7 @@
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
-      <c r="H191" s="12"/>
+      <c r="H191" s="16"/>
     </row>
     <row r="192" ht="15" hidden="1" spans="1:8">
       <c r="A192" s="7">
@@ -5675,9 +5710,9 @@
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
-      <c r="H194" s="12"/>
-    </row>
-    <row r="195" ht="15" hidden="1" spans="1:8">
+      <c r="H194" s="16"/>
+    </row>
+    <row r="195" ht="27.75" hidden="1" spans="1:8">
       <c r="A195" s="7">
         <v>400</v>
       </c>
@@ -5689,7 +5724,7 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" ht="15" hidden="1" spans="1:8">
+    <row r="196" ht="27.75" hidden="1" spans="1:8">
       <c r="A196" s="7">
         <v>137</v>
       </c>
@@ -5700,9 +5735,9 @@
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
-      <c r="H196" s="12"/>
-    </row>
-    <row r="197" ht="15" hidden="1" spans="1:8">
+      <c r="H196" s="16"/>
+    </row>
+    <row r="197" ht="27.75" hidden="1" spans="1:8">
       <c r="A197" s="7">
         <v>175</v>
       </c>
@@ -5713,7 +5748,7 @@
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
-      <c r="H197" s="12"/>
+      <c r="H197" s="16"/>
     </row>
     <row r="198" ht="15" hidden="1" spans="1:8">
       <c r="A198" s="7">
@@ -5750,7 +5785,7 @@
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
-      <c r="H200" s="12"/>
+      <c r="H200" s="16"/>
     </row>
     <row r="201" ht="15" hidden="1" spans="1:8">
       <c r="A201" s="7">
@@ -5775,13 +5810,13 @@
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
-      <c r="H202" s="12"/>
-    </row>
-    <row r="203" ht="15" hidden="1" spans="1:8">
+      <c r="H202" s="16"/>
+    </row>
+    <row r="203" ht="15" spans="1:8">
       <c r="A203" s="7">
         <v>137</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="17" t="s">
         <v>267</v>
       </c>
       <c r="C203" s="10" t="s">
@@ -5790,7 +5825,12 @@
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
-      <c r="H203" s="12"/>
+      <c r="G203" t="s">
+        <v>24</v>
+      </c>
+      <c r="H203" s="15">
+        <v>46004.40625</v>
+      </c>
     </row>
     <row r="204" ht="15" hidden="1" spans="1:8">
       <c r="A204" s="7">
@@ -5803,7 +5843,7 @@
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
-      <c r="H204" s="12"/>
+      <c r="H204" s="16"/>
     </row>
     <row r="205" ht="15" hidden="1" spans="1:8">
       <c r="A205" s="7">
@@ -5828,7 +5868,7 @@
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
-      <c r="H206" s="12"/>
+      <c r="H206" s="16"/>
     </row>
     <row r="207" ht="15" hidden="1" spans="1:8">
       <c r="A207" s="7">
@@ -5889,7 +5929,7 @@
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
-      <c r="H211" s="12"/>
+      <c r="H211" s="16"/>
     </row>
     <row r="212" ht="15" hidden="1" spans="1:8">
       <c r="A212" s="7">
@@ -5914,7 +5954,7 @@
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
-      <c r="H213" s="12"/>
+      <c r="H213" s="16"/>
     </row>
     <row r="214" ht="15" hidden="1" spans="1:8">
       <c r="A214" s="7">
@@ -5963,7 +6003,7 @@
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
-      <c r="H217" s="12"/>
+      <c r="H217" s="16"/>
     </row>
     <row r="218" ht="15" hidden="1" spans="1:8">
       <c r="A218" s="7">
@@ -6000,7 +6040,7 @@
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
-      <c r="H220" s="12"/>
+      <c r="H220" s="16"/>
     </row>
     <row r="221" ht="15" hidden="1" spans="1:8">
       <c r="A221" s="7">
@@ -6013,7 +6053,7 @@
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
-      <c r="H221" s="12"/>
+      <c r="H221" s="16"/>
     </row>
     <row r="222" ht="15" hidden="1" spans="1:8">
       <c r="A222" s="7">
@@ -6086,7 +6126,7 @@
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
-      <c r="H227" s="12"/>
+      <c r="H227" s="16"/>
     </row>
     <row r="228" ht="15" hidden="1" spans="1:8">
       <c r="A228" s="7">
@@ -6123,15 +6163,15 @@
         <v>295</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E230" s="9"/>
       <c r="F230" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H230" s="12"/>
-    </row>
-    <row r="231" ht="14.25" hidden="1" spans="1:8">
+      <c r="H230" s="15"/>
+    </row>
+    <row r="231" ht="15" hidden="1" spans="1:8">
       <c r="A231" s="7">
         <v>400</v>
       </c>
@@ -6143,7 +6183,7 @@
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
     </row>
-    <row r="232" ht="15" hidden="1" spans="1:8">
+    <row r="232" ht="27.75" hidden="1" spans="1:8">
       <c r="A232" s="7">
         <v>400</v>
       </c>
@@ -6177,16 +6217,16 @@
       <c r="C234" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="D234" s="31" t="s">
-        <v>62</v>
+      <c r="D234" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H234" s="12"/>
-    </row>
-    <row r="235" ht="14.25" hidden="1" spans="1:8">
+      <c r="H234" s="15"/>
+    </row>
+    <row r="235" ht="15" hidden="1" spans="1:8">
       <c r="A235" s="7">
         <v>400</v>
       </c>
@@ -6209,7 +6249,7 @@
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
-      <c r="H236" s="12"/>
+      <c r="H236" s="16"/>
     </row>
     <row r="237" ht="15" hidden="1" spans="1:8">
       <c r="A237" s="7">
@@ -6222,7 +6262,7 @@
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
-      <c r="H237" s="12"/>
+      <c r="H237" s="16"/>
     </row>
     <row r="238" ht="15" hidden="1" spans="1:8">
       <c r="A238" s="7">
@@ -6247,7 +6287,7 @@
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
-      <c r="H239" s="12"/>
+      <c r="H239" s="16"/>
     </row>
     <row r="240" ht="15" hidden="1" spans="1:8">
       <c r="A240" s="7">
@@ -6296,7 +6336,7 @@
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
-      <c r="H243" s="12"/>
+      <c r="H243" s="16"/>
     </row>
     <row r="244" ht="15" hidden="1" spans="1:8">
       <c r="A244" s="7">
@@ -6333,7 +6373,7 @@
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
-      <c r="H246" s="12"/>
+      <c r="H246" s="16"/>
     </row>
     <row r="247" ht="15" hidden="1" spans="1:8">
       <c r="A247" s="7">
@@ -6370,7 +6410,7 @@
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
-      <c r="H249" s="12"/>
+      <c r="H249" s="16"/>
     </row>
     <row r="250" ht="15" hidden="1" spans="1:8">
       <c r="A250" s="7">
@@ -6419,7 +6459,7 @@
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
-      <c r="H253" s="12"/>
+      <c r="H253" s="16"/>
     </row>
     <row r="254" ht="15" hidden="1" spans="1:8">
       <c r="A254" s="7">
@@ -6432,7 +6472,7 @@
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
-      <c r="H254" s="12"/>
+      <c r="H254" s="16"/>
     </row>
     <row r="255" ht="15" hidden="1" spans="1:8">
       <c r="A255" s="7">
@@ -6457,7 +6497,7 @@
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
-      <c r="H256" s="12"/>
+      <c r="H256" s="16"/>
     </row>
     <row r="257" ht="15" hidden="1" spans="1:8">
       <c r="A257" s="7">
@@ -6494,7 +6534,7 @@
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
-      <c r="H259" s="12"/>
+      <c r="H259" s="16"/>
     </row>
     <row r="260" ht="15" hidden="1" spans="1:8">
       <c r="A260" s="7">
@@ -6531,7 +6571,7 @@
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
-      <c r="H262" s="12"/>
+      <c r="H262" s="16"/>
     </row>
     <row r="263" ht="15" hidden="1" spans="1:8">
       <c r="A263" s="7">
@@ -6544,7 +6584,7 @@
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
-      <c r="H263" s="12"/>
+      <c r="H263" s="16"/>
     </row>
     <row r="264" ht="15" hidden="1" spans="1:8">
       <c r="A264" s="7">
@@ -6569,7 +6609,7 @@
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
       <c r="F265" s="9"/>
-      <c r="H265" s="12"/>
+      <c r="H265" s="16"/>
     </row>
     <row r="266" ht="15" hidden="1" spans="1:8">
       <c r="A266" s="7">
@@ -6594,7 +6634,7 @@
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
       <c r="F267" s="9"/>
-      <c r="H267" s="12"/>
+      <c r="H267" s="16"/>
     </row>
     <row r="268" ht="15" hidden="1" spans="1:8">
       <c r="A268" s="7">
@@ -6619,7 +6659,7 @@
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
       <c r="F269" s="9"/>
-      <c r="H269" s="12"/>
+      <c r="H269" s="16"/>
     </row>
     <row r="270" ht="15" hidden="1" spans="1:8">
       <c r="A270" s="7">
@@ -6632,7 +6672,7 @@
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
-      <c r="H270" s="12"/>
+      <c r="H270" s="16"/>
     </row>
     <row r="271" ht="15" hidden="1" spans="1:8">
       <c r="A271" s="7">
@@ -6657,7 +6697,7 @@
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
-      <c r="H272" s="12"/>
+      <c r="H272" s="16"/>
     </row>
     <row r="273" ht="15" hidden="1" spans="1:8">
       <c r="A273" s="7">
@@ -6682,7 +6722,7 @@
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
-      <c r="H274" s="12"/>
+      <c r="H274" s="16"/>
     </row>
     <row r="275" ht="15" hidden="1" spans="1:8">
       <c r="A275" s="7">
@@ -6731,7 +6771,7 @@
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
-      <c r="H278" s="12"/>
+      <c r="H278" s="16"/>
     </row>
     <row r="279" ht="15" hidden="1" spans="1:8">
       <c r="A279" s="7">
@@ -6768,7 +6808,7 @@
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
-      <c r="H281" s="12"/>
+      <c r="H281" s="16"/>
     </row>
     <row r="282" ht="15" hidden="1" spans="1:8">
       <c r="A282" s="7">
@@ -6853,7 +6893,7 @@
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
-      <c r="H288" s="12"/>
+      <c r="H288" s="16"/>
     </row>
     <row r="289" ht="15" hidden="1" spans="1:8">
       <c r="A289" s="7">
@@ -6890,7 +6930,7 @@
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
-      <c r="H291" s="12"/>
+      <c r="H291" s="16"/>
     </row>
     <row r="292" ht="15" spans="1:8">
       <c r="A292" s="7">
@@ -6905,15 +6945,15 @@
       <c r="D292" s="14">
         <v>45966</v>
       </c>
-      <c r="E292" s="14">
+      <c r="E292" s="32">
         <v>45994</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H292" s="12"/>
-    </row>
-    <row r="293" ht="14.25" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="H292" s="15"/>
+    </row>
+    <row r="293" ht="15" hidden="1" spans="1:8">
       <c r="A293" s="7">
         <v>386</v>
       </c>
@@ -6996,7 +7036,7 @@
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
-      <c r="H299" s="12"/>
+      <c r="H299" s="16"/>
     </row>
     <row r="300" ht="15" hidden="1" spans="1:8">
       <c r="A300" s="7">
@@ -7033,7 +7073,7 @@
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
-      <c r="H302" s="12"/>
+      <c r="H302" s="16"/>
     </row>
     <row r="303" ht="15" hidden="1" spans="1:8">
       <c r="A303" s="7">
@@ -7070,7 +7110,7 @@
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
-      <c r="H305" s="12"/>
+      <c r="H305" s="16"/>
     </row>
     <row r="306" ht="15" hidden="1" spans="1:8">
       <c r="A306" s="7">
@@ -7143,7 +7183,7 @@
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
-      <c r="H311" s="12"/>
+      <c r="H311" s="16"/>
     </row>
     <row r="312" ht="15" hidden="1" spans="1:8">
       <c r="A312" s="7">
@@ -7157,7 +7197,7 @@
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
     </row>
-    <row r="313" ht="15" hidden="1" spans="1:8">
+    <row r="313" ht="27.75" hidden="1" spans="1:8">
       <c r="A313" s="7">
         <v>269</v>
       </c>
@@ -7228,7 +7268,7 @@
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
-      <c r="H318" s="12"/>
+      <c r="H318" s="16"/>
     </row>
     <row r="319" ht="15" hidden="1" spans="1:8">
       <c r="A319" s="7">
@@ -7277,7 +7317,7 @@
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
-      <c r="H322" s="12"/>
+      <c r="H322" s="16"/>
     </row>
     <row r="323" ht="15" hidden="1" spans="1:8">
       <c r="A323" s="7">
@@ -7327,7 +7367,7 @@
       <c r="E326" s="9"/>
       <c r="F326" s="9"/>
     </row>
-    <row r="327" ht="15" hidden="1" spans="1:8">
+    <row r="327" ht="27.75" hidden="1" spans="1:8">
       <c r="A327" s="7">
         <v>392</v>
       </c>
@@ -7339,7 +7379,7 @@
       <c r="E327" s="9"/>
       <c r="F327" s="9"/>
     </row>
-    <row r="328" ht="15" hidden="1" spans="1:8">
+    <row r="328" ht="27.75" hidden="1" spans="1:8">
       <c r="A328" s="7">
         <v>400</v>
       </c>
@@ -7410,7 +7450,7 @@
       <c r="D333" s="9"/>
       <c r="E333" s="9"/>
       <c r="F333" s="9"/>
-      <c r="H333" s="12"/>
+      <c r="H333" s="16"/>
     </row>
     <row r="334" ht="15" hidden="1" spans="1:8">
       <c r="A334" s="7">
@@ -7487,9 +7527,9 @@
       </c>
       <c r="E339" s="9"/>
       <c r="F339" s="9"/>
-      <c r="H339" s="12"/>
-    </row>
-    <row r="340" ht="14.25" hidden="1" spans="1:8">
+      <c r="H339" s="15"/>
+    </row>
+    <row r="340" ht="15" hidden="1" spans="1:8">
       <c r="A340" s="7">
         <v>395</v>
       </c>
@@ -7512,7 +7552,7 @@
       <c r="D341" s="9"/>
       <c r="E341" s="9"/>
       <c r="F341" s="9"/>
-      <c r="H341" s="12"/>
+      <c r="H341" s="16"/>
     </row>
     <row r="342" ht="15" hidden="1" spans="1:8">
       <c r="A342" s="7">
@@ -7549,7 +7589,7 @@
       <c r="D344" s="9"/>
       <c r="E344" s="9"/>
       <c r="F344" s="9"/>
-      <c r="H344" s="12"/>
+      <c r="H344" s="16"/>
     </row>
     <row r="345" ht="15" hidden="1" spans="1:8">
       <c r="A345" s="7">
@@ -7606,17 +7646,17 @@
       <c r="B349" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C349" s="15" t="s">
+      <c r="C349" s="19" t="s">
         <v>419</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E349" s="9"/>
       <c r="F349" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H349" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="H349" s="15"/>
     </row>
     <row r="350" ht="15" spans="1:8">
       <c r="A350" s="7">
@@ -7625,21 +7665,24 @@
       <c r="B350" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C350" s="15" t="s">
+      <c r="C350" s="19" t="s">
         <v>421</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E350" s="14">
+        <v>58</v>
+      </c>
+      <c r="E350" s="18">
         <v>45985</v>
       </c>
       <c r="F350" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H350" s="12"/>
-    </row>
-    <row r="351" ht="14.25" hidden="1" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="G350" t="s">
+        <v>24</v>
+      </c>
+      <c r="H350" s="15"/>
+    </row>
+    <row r="351" ht="15" hidden="1" spans="1:8">
       <c r="A351" s="7">
         <v>174</v>
       </c>
@@ -7650,7 +7693,7 @@
       <c r="D351" s="9"/>
       <c r="E351" s="9"/>
       <c r="F351" s="9"/>
-      <c r="H351" s="12"/>
+      <c r="H351" s="16"/>
     </row>
     <row r="352" ht="15" hidden="1" spans="1:8">
       <c r="A352" s="7">
@@ -7663,7 +7706,7 @@
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
       <c r="F352" s="9"/>
-      <c r="H352" s="12"/>
+      <c r="H352" s="16"/>
     </row>
     <row r="353" ht="15" hidden="1" spans="1:8">
       <c r="A353" s="7">
@@ -7700,9 +7743,9 @@
       <c r="D355" s="9"/>
       <c r="E355" s="9"/>
       <c r="F355" s="9"/>
-      <c r="H355" s="12"/>
-    </row>
-    <row r="356" ht="15" hidden="1" spans="1:8">
+      <c r="H355" s="16"/>
+    </row>
+    <row r="356" ht="15" spans="1:8">
       <c r="A356" s="7">
         <v>181</v>
       </c>
@@ -7715,7 +7758,12 @@
       <c r="D356" s="11"/>
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
-      <c r="H356" s="12"/>
+      <c r="G356" t="s">
+        <v>24</v>
+      </c>
+      <c r="H356" s="34">
+        <v>46004.375</v>
+      </c>
     </row>
     <row r="357" ht="15" hidden="1" spans="1:8">
       <c r="A357" s="7">
@@ -7752,7 +7800,7 @@
       <c r="D359" s="9"/>
       <c r="E359" s="9"/>
       <c r="F359" s="9"/>
-      <c r="H359" s="12"/>
+      <c r="H359" s="16"/>
     </row>
     <row r="360" ht="15" hidden="1" spans="1:8">
       <c r="A360" s="7">
@@ -7765,7 +7813,7 @@
       <c r="D360" s="9"/>
       <c r="E360" s="9"/>
       <c r="F360" s="9"/>
-      <c r="H360" s="12"/>
+      <c r="H360" s="16"/>
     </row>
     <row r="361" ht="15" hidden="1" spans="1:8">
       <c r="A361" s="7">
@@ -7814,7 +7862,7 @@
       <c r="D364" s="9"/>
       <c r="E364" s="9"/>
       <c r="F364" s="9"/>
-      <c r="H364" s="12"/>
+      <c r="H364" s="16"/>
     </row>
     <row r="365" ht="15" hidden="1" spans="1:8">
       <c r="A365" s="7">
@@ -7923,7 +7971,7 @@
       <c r="D373" s="9"/>
       <c r="E373" s="9"/>
       <c r="F373" s="9"/>
-      <c r="H373" s="12"/>
+      <c r="H373" s="16"/>
     </row>
     <row r="374" ht="15" hidden="1" spans="1:8">
       <c r="A374" s="7">
@@ -8056,7 +8104,7 @@
       <c r="D384" s="9"/>
       <c r="E384" s="9"/>
       <c r="F384" s="9"/>
-      <c r="H384" s="12"/>
+      <c r="H384" s="16"/>
     </row>
     <row r="385" ht="15" hidden="1" spans="1:8">
       <c r="A385" s="7">
@@ -8081,7 +8129,7 @@
       <c r="D386" s="9"/>
       <c r="E386" s="9"/>
       <c r="F386" s="9"/>
-      <c r="H386" s="12"/>
+      <c r="H386" s="16"/>
     </row>
     <row r="387" ht="15" hidden="1" spans="1:8">
       <c r="A387" s="7">
@@ -8094,7 +8142,7 @@
       <c r="D387" s="9"/>
       <c r="E387" s="9"/>
       <c r="F387" s="9"/>
-      <c r="H387" s="12"/>
+      <c r="H387" s="16"/>
     </row>
     <row r="388" ht="15" hidden="1" spans="1:8">
       <c r="A388" s="7">
@@ -8107,9 +8155,9 @@
       <c r="D388" s="9"/>
       <c r="E388" s="9"/>
       <c r="F388" s="9"/>
-      <c r="H388" s="12"/>
-    </row>
-    <row r="389" ht="15" hidden="1" spans="1:8">
+      <c r="H388" s="16"/>
+    </row>
+    <row r="389" ht="15" spans="1:8">
       <c r="A389" s="7">
         <v>191</v>
       </c>
@@ -8122,7 +8170,10 @@
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
-      <c r="H389" s="12"/>
+      <c r="G389" t="s">
+        <v>24</v>
+      </c>
+      <c r="H389" s="15"/>
     </row>
     <row r="390" ht="15" hidden="1" spans="1:8">
       <c r="A390" s="7">
@@ -8147,7 +8198,7 @@
       <c r="D391" s="9"/>
       <c r="E391" s="9"/>
       <c r="F391" s="9"/>
-      <c r="H391" s="12"/>
+      <c r="H391" s="16"/>
     </row>
     <row r="392" ht="15" hidden="1" spans="1:8">
       <c r="A392" s="7">
@@ -8160,7 +8211,7 @@
       <c r="D392" s="9"/>
       <c r="E392" s="9"/>
       <c r="F392" s="9"/>
-      <c r="H392" s="12"/>
+      <c r="H392" s="16"/>
     </row>
     <row r="393" ht="15" hidden="1" spans="1:8">
       <c r="A393" s="7">
@@ -8173,7 +8224,7 @@
       <c r="D393" s="9"/>
       <c r="E393" s="9"/>
       <c r="F393" s="9"/>
-      <c r="H393" s="12"/>
+      <c r="H393" s="16"/>
     </row>
     <row r="394" ht="15" hidden="1" spans="1:8">
       <c r="A394" s="7">
@@ -8198,7 +8249,7 @@
       <c r="D395" s="9"/>
       <c r="E395" s="9"/>
       <c r="F395" s="9"/>
-      <c r="H395" s="12"/>
+      <c r="H395" s="16"/>
     </row>
     <row r="396" ht="15" hidden="1" spans="1:8">
       <c r="A396" s="7">
@@ -8223,7 +8274,7 @@
       <c r="D397" s="9"/>
       <c r="E397" s="9"/>
       <c r="F397" s="9"/>
-      <c r="H397" s="12"/>
+      <c r="H397" s="16"/>
     </row>
     <row r="398" ht="15" hidden="1" spans="1:8">
       <c r="A398" s="7">
@@ -8237,7 +8288,7 @@
       <c r="E398" s="9"/>
       <c r="F398" s="9"/>
     </row>
-    <row r="399" ht="15" hidden="1" spans="1:8">
+    <row r="399" ht="15" spans="1:8">
       <c r="A399" s="7">
         <v>242</v>
       </c>
@@ -8248,9 +8299,14 @@
         <v>23</v>
       </c>
       <c r="D399" s="11"/>
-      <c r="E399" s="11"/>
+      <c r="E399" s="33"/>
       <c r="F399" s="11"/>
-      <c r="H399" s="12"/>
+      <c r="G399" t="s">
+        <v>24</v>
+      </c>
+      <c r="H399" s="34">
+        <v>45986.4166666667</v>
+      </c>
     </row>
     <row r="400" ht="15" hidden="1" spans="1:8">
       <c r="A400" s="7">
@@ -8284,12 +8340,12 @@
         <v>473</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D402" s="9"/>
       <c r="E402" s="9"/>
       <c r="F402" s="9"/>
-      <c r="H402" s="12"/>
+      <c r="H402" s="16"/>
     </row>
     <row r="403" ht="15" hidden="1" spans="1:8">
       <c r="A403" s="7">
@@ -8299,7 +8355,7 @@
         <v>474</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D403" s="9"/>
       <c r="E403" s="9"/>
@@ -8328,7 +8384,7 @@
       <c r="D405" s="9"/>
       <c r="E405" s="9"/>
       <c r="F405" s="9"/>
-      <c r="H405" s="12"/>
+      <c r="H405" s="16"/>
     </row>
     <row r="406" ht="15.75" spans="1:8">
       <c r="A406" s="7">
@@ -8337,19 +8393,19 @@
       <c r="B406" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C406" s="29" t="s">
+      <c r="C406" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="D406" s="30"/>
-      <c r="E406" s="30" t="s">
+      <c r="D406" s="25"/>
+      <c r="E406" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="F406" s="30" t="s">
+      <c r="F406" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="H406" s="12"/>
-    </row>
-    <row r="407" ht="14.25" hidden="1" spans="1:8">
+      <c r="H406" s="15"/>
+    </row>
+    <row r="407" ht="15" hidden="1" spans="1:8">
       <c r="A407" s="7">
         <v>203</v>
       </c>
@@ -8360,7 +8416,7 @@
       <c r="D407" s="9"/>
       <c r="E407" s="9"/>
       <c r="F407" s="9"/>
-      <c r="H407" s="12"/>
+      <c r="H407" s="16"/>
     </row>
     <row r="408" ht="15" hidden="1" spans="1:8">
       <c r="A408" s="7">
@@ -8373,7 +8429,7 @@
       <c r="D408" s="9"/>
       <c r="E408" s="9"/>
       <c r="F408" s="9"/>
-      <c r="H408" s="12"/>
+      <c r="H408" s="16"/>
     </row>
     <row r="409" ht="15" hidden="1" spans="1:8">
       <c r="A409" s="7">
@@ -8398,7 +8454,7 @@
       <c r="D410" s="9"/>
       <c r="E410" s="9"/>
       <c r="F410" s="9"/>
-      <c r="H410" s="12"/>
+      <c r="H410" s="16"/>
     </row>
     <row r="411" ht="15" hidden="1" spans="1:8">
       <c r="A411" s="7">
@@ -8435,7 +8491,7 @@
       <c r="D413" s="9"/>
       <c r="E413" s="9"/>
       <c r="F413" s="9"/>
-      <c r="H413" s="12"/>
+      <c r="H413" s="16"/>
     </row>
     <row r="414" ht="15" hidden="1" spans="1:8">
       <c r="A414" s="7">
@@ -8448,7 +8504,7 @@
       <c r="D414" s="9"/>
       <c r="E414" s="9"/>
       <c r="F414" s="9"/>
-      <c r="H414" s="12"/>
+      <c r="H414" s="16"/>
     </row>
     <row r="415" ht="15" hidden="1" spans="1:8">
       <c r="A415" s="7">
@@ -8473,7 +8529,7 @@
       <c r="D416" s="9"/>
       <c r="E416" s="9"/>
       <c r="F416" s="9"/>
-      <c r="H416" s="12"/>
+      <c r="H416" s="16"/>
     </row>
     <row r="417" ht="15" hidden="1" spans="1:8">
       <c r="A417" s="7">
@@ -8510,7 +8566,7 @@
       <c r="D419" s="9"/>
       <c r="E419" s="9"/>
       <c r="F419" s="9"/>
-      <c r="H419" s="12"/>
+      <c r="H419" s="16"/>
     </row>
     <row r="420" ht="15" hidden="1" spans="1:8">
       <c r="A420" s="7">
@@ -8523,7 +8579,7 @@
       <c r="D420" s="9"/>
       <c r="E420" s="9"/>
       <c r="F420" s="9"/>
-      <c r="H420" s="12"/>
+      <c r="H420" s="16"/>
     </row>
     <row r="421" ht="15" hidden="1" spans="1:8">
       <c r="A421" s="7">
@@ -8536,7 +8592,7 @@
       <c r="D421" s="9"/>
       <c r="E421" s="9"/>
       <c r="F421" s="9"/>
-      <c r="H421" s="12"/>
+      <c r="H421" s="16"/>
     </row>
     <row r="422" ht="15" hidden="1" spans="1:8">
       <c r="A422" s="7">
@@ -8561,7 +8617,7 @@
       <c r="D423" s="9"/>
       <c r="E423" s="9"/>
       <c r="F423" s="9"/>
-      <c r="H423" s="12"/>
+      <c r="H423" s="16"/>
     </row>
     <row r="424" ht="15" hidden="1" spans="1:8">
       <c r="A424" s="7">
@@ -8586,7 +8642,7 @@
       <c r="D425" s="9"/>
       <c r="E425" s="9"/>
       <c r="F425" s="9"/>
-      <c r="H425" s="12"/>
+      <c r="H425" s="16"/>
     </row>
     <row r="426" ht="15" hidden="1" spans="1:8">
       <c r="A426" s="7">
@@ -8623,7 +8679,7 @@
       <c r="D428" s="9"/>
       <c r="E428" s="9"/>
       <c r="F428" s="9"/>
-      <c r="H428" s="12"/>
+      <c r="H428" s="16"/>
     </row>
     <row r="429" ht="15" hidden="1" spans="1:8">
       <c r="A429" s="7">
@@ -8636,7 +8692,7 @@
       <c r="D429" s="9"/>
       <c r="E429" s="9"/>
       <c r="F429" s="9"/>
-      <c r="H429" s="12"/>
+      <c r="H429" s="16"/>
     </row>
     <row r="430" ht="15" hidden="1" spans="1:8">
       <c r="A430" s="7">
@@ -8649,7 +8705,7 @@
       <c r="D430" s="9"/>
       <c r="E430" s="9"/>
       <c r="F430" s="9"/>
-      <c r="H430" s="12"/>
+      <c r="H430" s="16"/>
     </row>
     <row r="431" ht="15" hidden="1" spans="1:8">
       <c r="A431" s="7">
@@ -8662,7 +8718,7 @@
       <c r="D431" s="9"/>
       <c r="E431" s="9"/>
       <c r="F431" s="9"/>
-      <c r="H431" s="12"/>
+      <c r="H431" s="16"/>
     </row>
     <row r="432" ht="15" hidden="1" spans="1:8">
       <c r="A432" s="7">
@@ -8711,7 +8767,7 @@
       <c r="D435" s="9"/>
       <c r="E435" s="9"/>
       <c r="F435" s="9"/>
-      <c r="H435" s="12"/>
+      <c r="H435" s="16"/>
     </row>
     <row r="436" ht="15" hidden="1" spans="1:8">
       <c r="A436" s="7">
@@ -8721,13 +8777,13 @@
         <v>510</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D436" s="9"/>
       <c r="E436" s="9"/>
       <c r="F436" s="9"/>
     </row>
-    <row r="437" ht="15" hidden="1" spans="1:8">
+    <row r="437" ht="27.75" hidden="1" spans="1:8">
       <c r="A437" s="7">
         <v>275</v>
       </c>
@@ -8735,7 +8791,7 @@
         <v>511</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D437" s="9"/>
       <c r="E437" s="9"/>
@@ -8752,7 +8808,7 @@
       <c r="D438" s="9"/>
       <c r="E438" s="9"/>
       <c r="F438" s="9"/>
-      <c r="H438" s="12"/>
+      <c r="H438" s="16"/>
     </row>
     <row r="439" ht="15" hidden="1" spans="1:8">
       <c r="A439" s="7">
@@ -8765,7 +8821,7 @@
       <c r="D439" s="9"/>
       <c r="E439" s="9"/>
       <c r="F439" s="9"/>
-      <c r="H439" s="12"/>
+      <c r="H439" s="16"/>
     </row>
     <row r="440" ht="15" hidden="1" spans="1:8">
       <c r="A440" s="7">
@@ -8802,7 +8858,7 @@
       <c r="D442" s="9"/>
       <c r="E442" s="9"/>
       <c r="F442" s="9"/>
-      <c r="H442" s="12"/>
+      <c r="H442" s="16"/>
     </row>
     <row r="443" ht="15" hidden="1" spans="1:8">
       <c r="A443" s="7">
@@ -8815,7 +8871,7 @@
       <c r="D443" s="9"/>
       <c r="E443" s="9"/>
       <c r="F443" s="9"/>
-      <c r="H443" s="12"/>
+      <c r="H443" s="16"/>
     </row>
     <row r="444" ht="15" hidden="1" spans="1:8">
       <c r="A444" s="7">
@@ -8828,7 +8884,7 @@
       <c r="D444" s="9"/>
       <c r="E444" s="9"/>
       <c r="F444" s="9"/>
-      <c r="H444" s="12"/>
+      <c r="H444" s="16"/>
     </row>
     <row r="445" ht="15" hidden="1" spans="1:8">
       <c r="A445" s="7">
@@ -8841,7 +8897,7 @@
       <c r="D445" s="9"/>
       <c r="E445" s="9"/>
       <c r="F445" s="9"/>
-      <c r="H445" s="12"/>
+      <c r="H445" s="16"/>
     </row>
     <row r="446" ht="15" hidden="1" spans="1:8">
       <c r="A446" s="7">
@@ -8866,7 +8922,7 @@
       <c r="D447" s="9"/>
       <c r="E447" s="9"/>
       <c r="F447" s="9"/>
-      <c r="H447" s="12"/>
+      <c r="H447" s="16"/>
     </row>
     <row r="448" ht="15" hidden="1" spans="1:8">
       <c r="A448" s="7">
@@ -8912,7 +8968,7 @@
         <v>525</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D451" s="9"/>
       <c r="E451" s="9"/>
@@ -8938,7 +8994,7 @@
         <v>527</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D453" s="9"/>
       <c r="E453" s="9"/>
@@ -8955,7 +9011,7 @@
       <c r="D454" s="9"/>
       <c r="E454" s="9"/>
       <c r="F454" s="9"/>
-      <c r="H454" s="12"/>
+      <c r="H454" s="16"/>
     </row>
     <row r="455" ht="15" hidden="1" spans="1:8">
       <c r="A455" s="7">
@@ -8968,7 +9024,7 @@
       <c r="D455" s="9"/>
       <c r="E455" s="9"/>
       <c r="F455" s="9"/>
-      <c r="H455" s="12"/>
+      <c r="H455" s="16"/>
     </row>
     <row r="456" ht="15" hidden="1" spans="1:8">
       <c r="A456" s="7">
@@ -9017,7 +9073,7 @@
       <c r="D459" s="9"/>
       <c r="E459" s="9"/>
       <c r="F459" s="9"/>
-      <c r="H459" s="12"/>
+      <c r="H459" s="16"/>
     </row>
     <row r="460" ht="15" hidden="1" spans="1:8">
       <c r="A460" s="7">
@@ -9030,7 +9086,7 @@
       <c r="D460" s="9"/>
       <c r="E460" s="9"/>
       <c r="F460" s="9"/>
-      <c r="H460" s="12"/>
+      <c r="H460" s="16"/>
     </row>
     <row r="461" ht="15" hidden="1" spans="1:8">
       <c r="A461" s="7">
@@ -9040,7 +9096,7 @@
         <v>535</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D461" s="9"/>
       <c r="E461" s="9"/>
@@ -9081,7 +9137,7 @@
       <c r="D464" s="9"/>
       <c r="E464" s="9"/>
       <c r="F464" s="9"/>
-      <c r="H464" s="12"/>
+      <c r="H464" s="16"/>
     </row>
     <row r="465" ht="15" hidden="1" spans="1:8">
       <c r="A465" s="7">
@@ -9094,7 +9150,7 @@
       <c r="D465" s="9"/>
       <c r="E465" s="9"/>
       <c r="F465" s="9"/>
-      <c r="H465" s="12"/>
+      <c r="H465" s="16"/>
     </row>
     <row r="466" ht="15" hidden="1" spans="1:8">
       <c r="A466" s="7">
@@ -9107,7 +9163,7 @@
       <c r="D466" s="9"/>
       <c r="E466" s="9"/>
       <c r="F466" s="9"/>
-      <c r="H466" s="12"/>
+      <c r="H466" s="16"/>
     </row>
     <row r="467" ht="15" hidden="1" spans="1:8">
       <c r="A467" s="7">
@@ -9144,7 +9200,7 @@
       <c r="D469" s="9"/>
       <c r="E469" s="9"/>
       <c r="F469" s="9"/>
-      <c r="H469" s="12"/>
+      <c r="H469" s="16"/>
     </row>
     <row r="470" ht="15" hidden="1" spans="1:8">
       <c r="A470" s="7">
@@ -9202,7 +9258,7 @@
         <v>548</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D474" s="9"/>
       <c r="E474" s="9"/>
@@ -9243,7 +9299,7 @@
       <c r="D477" s="9"/>
       <c r="E477" s="9"/>
       <c r="F477" s="9"/>
-      <c r="H477" s="12"/>
+      <c r="H477" s="16"/>
     </row>
     <row r="478" ht="15" hidden="1" spans="1:8">
       <c r="A478" s="7">
@@ -9312,21 +9368,21 @@
       <c r="B483" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C483" s="29" t="s">
+      <c r="C483" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="D483" s="30" t="s">
+      <c r="D483" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="E483" s="30" t="s">
+      <c r="E483" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="F483" s="30" t="s">
+      <c r="F483" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="H483" s="12"/>
-    </row>
-    <row r="484" ht="14.25" hidden="1" spans="1:8">
+      <c r="H483" s="15"/>
+    </row>
+    <row r="484" ht="15" hidden="1" spans="1:8">
       <c r="A484" s="7">
         <v>251</v>
       </c>
@@ -9397,9 +9453,9 @@
       <c r="D489" s="9"/>
       <c r="E489" s="9"/>
       <c r="F489" s="9"/>
-      <c r="H489" s="12"/>
-    </row>
-    <row r="490" ht="15" hidden="1" spans="1:8">
+      <c r="H489" s="16"/>
+    </row>
+    <row r="490" ht="27.75" hidden="1" spans="1:8">
       <c r="A490" s="7">
         <v>352</v>
       </c>
@@ -9419,7 +9475,7 @@
         <v>569</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D491" s="9"/>
       <c r="E491" s="9"/>
@@ -9448,7 +9504,7 @@
       <c r="D493" s="9"/>
       <c r="E493" s="9"/>
       <c r="F493" s="9"/>
-      <c r="H493" s="12"/>
+      <c r="H493" s="16"/>
     </row>
     <row r="494" ht="15" hidden="1" spans="1:8">
       <c r="A494" s="7">
@@ -9473,7 +9529,7 @@
       <c r="D495" s="9"/>
       <c r="E495" s="9"/>
       <c r="F495" s="9"/>
-      <c r="H495" s="12"/>
+      <c r="H495" s="16"/>
     </row>
     <row r="496" ht="15" hidden="1" spans="1:8">
       <c r="A496" s="7">
@@ -9503,16 +9559,16 @@
       <c r="A498" s="7">
         <v>160</v>
       </c>
-      <c r="B498" s="22" t="s">
+      <c r="B498" s="17" t="s">
         <v>576</v>
       </c>
       <c r="C498" s="10"/>
       <c r="D498" s="11"/>
       <c r="E498" s="11"/>
       <c r="F498" s="11"/>
-      <c r="H498" s="12"/>
-    </row>
-    <row r="499" ht="15" hidden="1" spans="1:8">
+      <c r="H498" s="16"/>
+    </row>
+    <row r="499" ht="27.75" hidden="1" spans="1:8">
       <c r="A499" s="7">
         <v>173</v>
       </c>
@@ -9523,7 +9579,7 @@
       <c r="D499" s="9"/>
       <c r="E499" s="9"/>
       <c r="F499" s="9"/>
-      <c r="H499" s="12"/>
+      <c r="H499" s="16"/>
     </row>
     <row r="500" ht="15" hidden="1" spans="1:8">
       <c r="A500" s="7">
@@ -9548,7 +9604,7 @@
       <c r="D501" s="9"/>
       <c r="E501" s="9"/>
       <c r="F501" s="9"/>
-      <c r="H501" s="12"/>
+      <c r="H501" s="16"/>
     </row>
     <row r="502" ht="15" hidden="1" spans="1:8">
       <c r="A502" s="7">
@@ -9575,7 +9631,7 @@
       <c r="D503" s="9"/>
       <c r="E503" s="9"/>
       <c r="F503" s="9"/>
-      <c r="H503" s="12"/>
+      <c r="H503" s="16"/>
     </row>
     <row r="504" ht="15" hidden="1" spans="1:8">
       <c r="A504" s="7">
@@ -9589,7 +9645,7 @@
       <c r="E504" s="9"/>
       <c r="F504" s="9"/>
     </row>
-    <row r="505" ht="15" hidden="1" spans="1:8">
+    <row r="505" ht="27.75" hidden="1" spans="1:8">
       <c r="A505" s="7">
         <v>400</v>
       </c>
@@ -9601,11 +9657,11 @@
       <c r="E505" s="9"/>
       <c r="F505" s="9"/>
     </row>
-    <row r="506" ht="15" hidden="1" spans="1:8">
+    <row r="506" ht="27.75" hidden="1" spans="1:8">
       <c r="A506" s="7">
         <v>304</v>
       </c>
-      <c r="B506" s="22" t="s">
+      <c r="B506" s="17" t="s">
         <v>584</v>
       </c>
       <c r="C506" s="10"/>
@@ -9625,7 +9681,7 @@
       <c r="E507" s="9"/>
       <c r="F507" s="9"/>
     </row>
-    <row r="508" ht="15" hidden="1" spans="1:8">
+    <row r="508" ht="27.75" hidden="1" spans="1:8">
       <c r="A508" s="7">
         <v>400</v>
       </c>
@@ -9672,7 +9728,7 @@
       <c r="D511" s="9"/>
       <c r="E511" s="9"/>
       <c r="F511" s="9"/>
-      <c r="H511" s="12"/>
+      <c r="H511" s="16"/>
     </row>
     <row r="512" ht="15" hidden="1" spans="1:8">
       <c r="A512" s="7">
@@ -9682,13 +9738,13 @@
         <v>590</v>
       </c>
       <c r="C512" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D512" s="9"/>
       <c r="E512" s="9"/>
       <c r="F512" s="9"/>
     </row>
-    <row r="513" ht="15" hidden="1" spans="1:6">
+    <row r="513" ht="15" hidden="1" spans="1:8">
       <c r="A513" s="7">
         <v>381</v>
       </c>
@@ -9700,7 +9756,7 @@
       <c r="E513" s="9"/>
       <c r="F513" s="9"/>
     </row>
-    <row r="514" ht="15" hidden="1" spans="1:6">
+    <row r="514" ht="15" hidden="1" spans="1:8">
       <c r="A514" s="7">
         <v>400</v>
       </c>
@@ -9708,13 +9764,13 @@
         <v>592</v>
       </c>
       <c r="C514" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D514" s="9"/>
       <c r="E514" s="9"/>
       <c r="F514" s="9"/>
     </row>
-    <row r="515" ht="15" hidden="1" spans="1:6">
+    <row r="515" ht="15" hidden="1" spans="1:8">
       <c r="A515" s="7">
         <v>400</v>
       </c>
@@ -9722,13 +9778,13 @@
         <v>593</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D515" s="9"/>
       <c r="E515" s="9"/>
       <c r="F515" s="9"/>
     </row>
-    <row r="516" ht="15" hidden="1" spans="1:6">
+    <row r="516" ht="15" hidden="1" spans="1:8">
       <c r="A516" s="7">
         <v>400</v>
       </c>
@@ -9740,7 +9796,7 @@
       <c r="E516" s="9"/>
       <c r="F516" s="9"/>
     </row>
-    <row r="517" ht="15" hidden="1" spans="1:6">
+    <row r="517" ht="15" hidden="1" spans="1:8">
       <c r="A517" s="7">
         <v>368</v>
       </c>
@@ -9752,7 +9808,7 @@
       <c r="E517" s="9"/>
       <c r="F517" s="9"/>
     </row>
-    <row r="518" ht="15" hidden="1" spans="1:6">
+    <row r="518" ht="15" hidden="1" spans="1:8">
       <c r="A518" s="7">
         <v>390</v>
       </c>
@@ -9764,7 +9820,7 @@
       <c r="E518" s="9"/>
       <c r="F518" s="9"/>
     </row>
-    <row r="519" ht="15" hidden="1" spans="1:6">
+    <row r="519" ht="15" hidden="1" spans="1:8">
       <c r="A519" s="7">
         <v>268</v>
       </c>
@@ -9776,7 +9832,7 @@
       <c r="E519" s="9"/>
       <c r="F519" s="9"/>
     </row>
-    <row r="520" ht="15" hidden="1" spans="1:6">
+    <row r="520" ht="15" hidden="1" spans="1:8">
       <c r="A520" s="7">
         <v>400</v>
       </c>
@@ -9788,7 +9844,7 @@
       <c r="E520" s="9"/>
       <c r="F520" s="9"/>
     </row>
-    <row r="521" ht="15" hidden="1" spans="1:6">
+    <row r="521" ht="15" hidden="1" spans="1:8">
       <c r="A521" s="7">
         <v>355</v>
       </c>
@@ -9800,7 +9856,7 @@
       <c r="E521" s="9"/>
       <c r="F521" s="9"/>
     </row>
-    <row r="522" ht="15" hidden="1" spans="1:6">
+    <row r="522" ht="15" hidden="1" spans="1:8">
       <c r="A522" s="7">
         <v>381</v>
       </c>
@@ -9812,8 +9868,25 @@
       <c r="E522" s="9"/>
       <c r="F522" s="9"/>
     </row>
+    <row r="524" spans="1:8">
+      <c r="A524" t="s">
+        <v>601</v>
+      </c>
+      <c r="B524" t="s">
+        <v>581</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G524" t="s">
+        <v>24</v>
+      </c>
+      <c r="H524" s="12">
+        <v>45983.3645833333</v>
+      </c>
+    </row>
     <row r="540" ht="14.25" spans="13:13">
-      <c r="M540" s="32"/>
+      <c r="M540" s="36"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H522" etc:filterBottomFollowUsedRange="0">
@@ -9821,6 +9894,7 @@
       <filters>
         <filter val="https://www.heepwoh.edu.hk/tc/latest_new/2025-2026%E5%B9%B4%E5%BA%A6%E4%B8%8B%E5%AD%B8%E6%9C%9F1%E6%9C%88%E5%85%A5%E5%AD%B8%E5%B0%8F%E4%B8%89%E8%87%B3%E5%B0%8F%E4%BA%94%E6%8F%92%E7%8F%AD%E7%94%9F%E7%94%B3%E8%AB%8B"/>
         <filter val="https://www.fungkei.edu.hk/%E6%8F%92%E7%8F%AD%E7%94%9F%E7%94%B3%E8%AB%8B"/>
+        <filter val="拔萃"/>
         <filter val="https://www.stwdcfwms.edu.hk/tc/content.php?wid=57#content"/>
         <filter val="https://www.tcn.edu.hk/attachment/upload/files/tcn/page_6/p1/招收2025-2026年度一至五年級插班生2025-7-2.pdf"/>
         <filter val="https://www.hytps.edu.hk/attachment/upload/files/promo/2526/2025-26_p2-p5_notice.pdf"/>
